--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+  <si>
+    <t>PROJECT_#_0</t>
+  </si>
   <si>
     <t>E#3</t>
   </si>
@@ -37,31 +40,40 @@
     <t>FITNESS</t>
   </si>
   <si>
-    <t>E#9</t>
+    <t>PROJECT_#_1</t>
+  </si>
+  <si>
+    <t>E#1</t>
+  </si>
+  <si>
+    <t>E#6</t>
+  </si>
+  <si>
+    <t>PROJECT_#_2</t>
+  </si>
+  <si>
+    <t>E#4</t>
   </si>
   <si>
     <t>E#11</t>
   </si>
   <si>
+    <t>PROJECT_#_3</t>
+  </si>
+  <si>
+    <t>E#12</t>
+  </si>
+  <si>
+    <t>E#14</t>
+  </si>
+  <si>
+    <t>PROJECT_#_4</t>
+  </si>
+  <si>
     <t>E#2</t>
   </si>
   <si>
-    <t>E#6</t>
-  </si>
-  <si>
-    <t>E#14</t>
-  </si>
-  <si>
-    <t>E#0</t>
-  </si>
-  <si>
     <t>E#8</t>
-  </si>
-  <si>
-    <t>E#1</t>
-  </si>
-  <si>
-    <t>E#7</t>
   </si>
 </sst>
 </file>
@@ -419,20 +431,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B54"/>
+  <dimension ref="A2:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -440,7 +452,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -448,7 +460,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>9.550000000000001</v>
@@ -456,7 +468,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>8.44</v>
@@ -464,7 +476,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>9.43</v>
@@ -472,7 +484,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>10.58</v>
@@ -480,20 +492,20 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0.3722284915678534</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="1">
-        <v>0</v>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -501,7 +513,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -509,52 +521,52 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>7.38</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>14.23</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>9.73</v>
+        <v>8.790000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>5.01</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>0.1278794335881836</v>
+        <v>0.1281089352209926</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="B24" s="1">
-        <v>0</v>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -562,7 +574,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -570,60 +582,60 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>10.74</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>13.84</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>13.05</v>
+        <v>9.149999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>8.84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>0.1348629011349416</v>
+        <v>0.1284500586631231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="B36" s="1">
-        <v>0</v>
+      <c r="A36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -631,60 +643,60 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>13.81</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>9.67</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>7.85</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>9.26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <v>0.1177570439251672</v>
+        <v>0.1530498306376764</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="B47" s="1">
-        <v>0</v>
+      <c r="A47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -692,50 +704,42 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>9.48</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>9.470000000000001</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>9.220000000000001</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>9.210000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54">
-        <v>0.1656942256185793</v>
+        <v>0.2130081278849053</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -22,58 +22,58 @@
     <t>E#3</t>
   </si>
   <si>
+    <t>E#11</t>
+  </si>
+  <si>
+    <t>C#0</t>
+  </si>
+  <si>
+    <t>C#1</t>
+  </si>
+  <si>
+    <t>C#2</t>
+  </si>
+  <si>
+    <t>C#3</t>
+  </si>
+  <si>
+    <t>FITNESS</t>
+  </si>
+  <si>
+    <t>PROJECT_#_1</t>
+  </si>
+  <si>
+    <t>E#1</t>
+  </si>
+  <si>
+    <t>E#6</t>
+  </si>
+  <si>
+    <t>PROJECT_#_2</t>
+  </si>
+  <si>
+    <t>E#4</t>
+  </si>
+  <si>
+    <t>E#14</t>
+  </si>
+  <si>
+    <t>PROJECT_#_3</t>
+  </si>
+  <si>
+    <t>E#0</t>
+  </si>
+  <si>
+    <t>E#8</t>
+  </si>
+  <si>
+    <t>PROJECT_#_5</t>
+  </si>
+  <si>
     <t>E#5</t>
   </si>
   <si>
-    <t>C#0</t>
-  </si>
-  <si>
-    <t>C#1</t>
-  </si>
-  <si>
-    <t>C#2</t>
-  </si>
-  <si>
-    <t>C#3</t>
-  </si>
-  <si>
-    <t>FITNESS</t>
-  </si>
-  <si>
-    <t>PROJECT_#_1</t>
-  </si>
-  <si>
-    <t>E#1</t>
-  </si>
-  <si>
-    <t>E#6</t>
-  </si>
-  <si>
-    <t>PROJECT_#_2</t>
-  </si>
-  <si>
-    <t>E#4</t>
-  </si>
-  <si>
-    <t>E#11</t>
-  </si>
-  <si>
-    <t>PROJECT_#_3</t>
-  </si>
-  <si>
-    <t>E#12</t>
-  </si>
-  <si>
-    <t>E#14</t>
-  </si>
-  <si>
-    <t>PROJECT_#_4</t>
-  </si>
-  <si>
-    <t>E#2</t>
-  </si>
-  <si>
-    <t>E#8</t>
+    <t>E#9</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.550000000000001</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.44</v>
+        <v>12.17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -479,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.43</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.58</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -495,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3722284915678534</v>
+        <v>0.1498181562069559</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>9.76</v>
+        <v>9.629999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -593,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>12.75</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -601,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="B29">
-        <v>14.84</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -609,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>9.149999999999999</v>
+        <v>7.819999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -617,7 +617,7 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <v>0.1284500586631231</v>
+        <v>0.1687855667343836</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>13.77</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -654,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="B39">
-        <v>8.109999999999999</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -662,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="B40">
-        <v>5.47</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -670,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="B41">
-        <v>9.07</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B42">
-        <v>0.1530498306376764</v>
+        <v>0.1177570439251672</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>10.29</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -715,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="B50">
-        <v>8.140000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -723,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="B51">
-        <v>3.44</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -731,7 +731,7 @@
         <v>6</v>
       </c>
       <c r="B52">
-        <v>11.15</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -739,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="B53">
-        <v>0.2130081278849053</v>
+        <v>0.2640434866848801</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>PROJECT_#_0</t>
   </si>
@@ -22,58 +22,61 @@
     <t>E#3</t>
   </si>
   <si>
+    <t>E#14</t>
+  </si>
+  <si>
+    <t>C#0</t>
+  </si>
+  <si>
+    <t>C#1</t>
+  </si>
+  <si>
+    <t>C#2</t>
+  </si>
+  <si>
+    <t>C#3</t>
+  </si>
+  <si>
+    <t>FITNESS</t>
+  </si>
+  <si>
+    <t>PROJECT_#_1</t>
+  </si>
+  <si>
+    <t>E#1</t>
+  </si>
+  <si>
+    <t>E#6</t>
+  </si>
+  <si>
+    <t>PROJECT_#_2</t>
+  </si>
+  <si>
+    <t>E#5</t>
+  </si>
+  <si>
+    <t>E#7</t>
+  </si>
+  <si>
+    <t>E#9</t>
+  </si>
+  <si>
+    <t>PROJECT_#_3</t>
+  </si>
+  <si>
     <t>E#11</t>
   </si>
   <si>
-    <t>C#0</t>
-  </si>
-  <si>
-    <t>C#1</t>
-  </si>
-  <si>
-    <t>C#2</t>
-  </si>
-  <si>
-    <t>C#3</t>
-  </si>
-  <si>
-    <t>FITNESS</t>
-  </si>
-  <si>
-    <t>PROJECT_#_1</t>
-  </si>
-  <si>
-    <t>E#1</t>
-  </si>
-  <si>
-    <t>E#6</t>
-  </si>
-  <si>
-    <t>PROJECT_#_2</t>
-  </si>
-  <si>
-    <t>E#4</t>
-  </si>
-  <si>
-    <t>E#14</t>
-  </si>
-  <si>
-    <t>PROJECT_#_3</t>
-  </si>
-  <si>
-    <t>E#0</t>
+    <t>E#12</t>
+  </si>
+  <si>
+    <t>PROJECT_#_4</t>
+  </si>
+  <si>
+    <t>E#2</t>
   </si>
   <si>
     <t>E#8</t>
-  </si>
-  <si>
-    <t>PROJECT_#_5</t>
-  </si>
-  <si>
-    <t>E#5</t>
-  </si>
-  <si>
-    <t>E#9</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B53"/>
+  <dimension ref="A2:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.69</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -471,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.17</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -479,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.57</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -487,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.85</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -495,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1498181562069559</v>
+        <v>0.1779928703891769</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -582,55 +585,55 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>9.629999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>13.57</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>12.26</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>7.819999999999999</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31">
-        <v>0.1687855667343836</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="1" t="s">
-        <v>14</v>
+      <c r="B32">
+        <v>0.158706368553227</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -643,55 +646,55 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B38">
-        <v>13.81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>9.67</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>7.85</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>9.26</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B42">
-        <v>0.1177570439251672</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46" s="1" t="s">
-        <v>17</v>
+      <c r="B43">
+        <v>0.1272089621524845</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -704,42 +707,50 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B49">
-        <v>8.24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>10.5</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51">
-        <v>5.59</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52">
-        <v>3.74</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B53">
-        <v>0.2640434866848801</v>
+      <c r="B54">
+        <v>0.2130081278849053</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -19,64 +19,64 @@
     <t>PROJECT_#_0</t>
   </si>
   <si>
+    <t>E#0</t>
+  </si>
+  <si>
+    <t>E#9</t>
+  </si>
+  <si>
+    <t>E#12</t>
+  </si>
+  <si>
+    <t>C#0</t>
+  </si>
+  <si>
+    <t>C#1</t>
+  </si>
+  <si>
+    <t>C#2</t>
+  </si>
+  <si>
+    <t>C#3</t>
+  </si>
+  <si>
+    <t>FITNESS</t>
+  </si>
+  <si>
+    <t>PROJECT_#_1</t>
+  </si>
+  <si>
+    <t>E#1</t>
+  </si>
+  <si>
+    <t>E#6</t>
+  </si>
+  <si>
+    <t>PROJECT_#_2</t>
+  </si>
+  <si>
+    <t>E#4</t>
+  </si>
+  <si>
+    <t>E#14</t>
+  </si>
+  <si>
+    <t>PROJECT_#_4</t>
+  </si>
+  <si>
+    <t>E#2</t>
+  </si>
+  <si>
+    <t>E#8</t>
+  </si>
+  <si>
+    <t>PROJECT_#_6</t>
+  </si>
+  <si>
     <t>E#3</t>
   </si>
   <si>
-    <t>E#14</t>
-  </si>
-  <si>
-    <t>C#0</t>
-  </si>
-  <si>
-    <t>C#1</t>
-  </si>
-  <si>
-    <t>C#2</t>
-  </si>
-  <si>
-    <t>C#3</t>
-  </si>
-  <si>
-    <t>FITNESS</t>
-  </si>
-  <si>
-    <t>PROJECT_#_1</t>
-  </si>
-  <si>
-    <t>E#1</t>
-  </si>
-  <si>
-    <t>E#6</t>
-  </si>
-  <si>
-    <t>PROJECT_#_2</t>
-  </si>
-  <si>
     <t>E#5</t>
-  </si>
-  <si>
-    <t>E#7</t>
-  </si>
-  <si>
-    <t>E#9</t>
-  </si>
-  <si>
-    <t>PROJECT_#_3</t>
-  </si>
-  <si>
-    <t>E#11</t>
-  </si>
-  <si>
-    <t>E#12</t>
-  </si>
-  <si>
-    <t>PROJECT_#_4</t>
-  </si>
-  <si>
-    <t>E#2</t>
-  </si>
-  <si>
-    <t>E#8</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.99</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.99</v>
+        <v>9.629999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.52</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -498,20 +498,20 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1779928703891769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="1" t="s">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0.1679311440763363</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -524,10 +524,10 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>8.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -535,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>13.62</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -543,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>8.790000000000001</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -551,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>7.23</v>
+        <v>8.790000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -559,20 +559,20 @@
         <v>7</v>
       </c>
       <c r="B20">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
         <v>0.1281089352209926</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -593,42 +593,42 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>11.13</v>
+        <v>9.629999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>11.76</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>13.75</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>7.57</v>
+        <v>7.819999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>0.158706368553227</v>
+        <v>0.1687855667343836</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,42 +654,42 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>13.9</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>7.29</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>8.050000000000001</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>10.4</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43">
-        <v>0.1272089621524845</v>
+        <v>0.2130081278849053</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -715,42 +715,42 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>10.29</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>8.140000000000001</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>3.44</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>11.15</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54">
-        <v>0.2130081278849053</v>
+        <v>0.1454056781310577</v>
       </c>
     </row>
   </sheetData>
